--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-009 - SRM mengajukan Non Sales Pemimpin Cabang Approve atau Reject.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-009 - SRM mengajukan Non Sales Pemimpin Cabang Approve atau Reject.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE1D64E-2CCF-4839-B89F-7C7DEB5B367D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40213315-A8BE-4B91-A42B-D624CE9D0042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="3645" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0286" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0018" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>RUN</t>
   </si>
@@ -172,6 +172,9 @@
   <si>
     <t>• Saat pemimpin cabang telah melakukan approve setuju maka status  approval  di monitoring menjadi “Disetujui”
 • Pada report Status Sales berubah</t>
+  </si>
+  <si>
+    <t>SCD0018-009</t>
   </si>
 </sst>
 </file>
@@ -578,13 +581,13 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -690,11 +693,11 @@
       </c>
       <c r="M2" s="12" t="str">
         <f ca="1">TEXT(TODAY()+1,"yyyy-mm-dd")</f>
-        <v>2022-09-01</v>
+        <v>2022-11-11</v>
       </c>
       <c r="N2" s="12" t="str">
         <f ca="1">TEXT(TODAY()+2,"yyyy-mm-dd")</f>
-        <v>2022-09-02</v>
+        <v>2022-11-12</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>26</v>
@@ -707,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>31</v>
@@ -741,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>31</v>
@@ -775,12 +778,12 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>31</v>
@@ -810,11 +813,11 @@
       </c>
       <c r="M5" s="12" t="str">
         <f ca="1">TEXT(TODAY()+1,"yyyy-mm-dd")</f>
-        <v>2022-09-01</v>
+        <v>2022-11-11</v>
       </c>
       <c r="N5" s="12" t="str">
         <f ca="1">TEXT(TODAY()+2,"yyyy-mm-dd")</f>
-        <v>2022-09-02</v>
+        <v>2022-11-12</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>26</v>
@@ -825,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>31</v>
@@ -857,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>31</v>
